--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.827738000000002</v>
+        <v>0.989021</v>
       </c>
       <c r="N2">
-        <v>29.483214</v>
+        <v>2.967063</v>
       </c>
       <c r="O2">
-        <v>0.3869625527756497</v>
+        <v>0.05972921679266473</v>
       </c>
       <c r="P2">
-        <v>0.3869625527756497</v>
+        <v>0.05972921679266473</v>
       </c>
       <c r="Q2">
-        <v>1404.456026833427</v>
+        <v>3.041403422812334</v>
       </c>
       <c r="R2">
-        <v>12640.10424150084</v>
+        <v>27.372630805311</v>
       </c>
       <c r="S2">
-        <v>0.2157960196038513</v>
+        <v>0.001577612069711754</v>
       </c>
       <c r="T2">
-        <v>0.2157960196038513</v>
+        <v>0.001577612069711754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>28.088209</v>
       </c>
       <c r="O3">
-        <v>0.368653331266258</v>
+        <v>0.5654368392847325</v>
       </c>
       <c r="P3">
-        <v>0.368653331266258</v>
+        <v>0.5654368392847325</v>
       </c>
       <c r="Q3">
-        <v>1338.003869354504</v>
+        <v>28.79196531831922</v>
       </c>
       <c r="R3">
-        <v>12042.03482419054</v>
+        <v>259.127687864873</v>
       </c>
       <c r="S3">
-        <v>0.2055855816805139</v>
+        <v>0.01493473429279604</v>
       </c>
       <c r="T3">
-        <v>0.2055855816805139</v>
+        <v>0.01493473429279604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.619965</v>
       </c>
       <c r="O4">
-        <v>0.2443841159580923</v>
+        <v>0.3748339439226028</v>
       </c>
       <c r="P4">
-        <v>0.2443841159580923</v>
+        <v>0.3748339439226028</v>
       </c>
       <c r="Q4">
-        <v>886.9766391031001</v>
+        <v>19.086492360845</v>
       </c>
       <c r="R4">
-        <v>7982.7897519279</v>
+        <v>171.778431247605</v>
       </c>
       <c r="S4">
-        <v>0.1362848138660535</v>
+        <v>0.00990039022481505</v>
       </c>
       <c r="T4">
-        <v>0.1362848138660536</v>
+        <v>0.00990039022481505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.827738000000002</v>
+        <v>0.989021</v>
       </c>
       <c r="N5">
-        <v>29.483214</v>
+        <v>2.967063</v>
       </c>
       <c r="O5">
-        <v>0.3869625527756497</v>
+        <v>0.05972921679266473</v>
       </c>
       <c r="P5">
-        <v>0.3869625527756497</v>
+        <v>0.05972921679266473</v>
       </c>
       <c r="Q5">
-        <v>628.6588672860421</v>
+        <v>63.265506424989</v>
       </c>
       <c r="R5">
-        <v>5657.929805574378</v>
+        <v>569.389557824901</v>
       </c>
       <c r="S5">
-        <v>0.09659403972573335</v>
+        <v>0.03281656941130091</v>
       </c>
       <c r="T5">
-        <v>0.09659403972573337</v>
+        <v>0.03281656941130092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>28.088209</v>
       </c>
       <c r="O6">
-        <v>0.368653331266258</v>
+        <v>0.5654368392847325</v>
       </c>
       <c r="P6">
-        <v>0.368653331266258</v>
+        <v>0.5654368392847325</v>
       </c>
       <c r="Q6">
         <v>598.9137294880269</v>
@@ -818,10 +818,10 @@
         <v>5390.223565392243</v>
       </c>
       <c r="S6">
-        <v>0.09202367068836866</v>
+        <v>0.3106636631199361</v>
       </c>
       <c r="T6">
-        <v>0.09202367068836868</v>
+        <v>0.3106636631199362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.619965</v>
       </c>
       <c r="O7">
-        <v>0.2443841159580923</v>
+        <v>0.3748339439226028</v>
       </c>
       <c r="P7">
-        <v>0.2443841159580923</v>
+        <v>0.3748339439226028</v>
       </c>
       <c r="Q7">
         <v>397.026121568895</v>
@@ -880,10 +880,10 @@
         <v>3573.235094120055</v>
       </c>
       <c r="S7">
-        <v>0.06100344551654933</v>
+        <v>0.205942163634036</v>
       </c>
       <c r="T7">
-        <v>0.06100344551654934</v>
+        <v>0.205942163634036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J8">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.827738000000002</v>
+        <v>0.989021</v>
       </c>
       <c r="N8">
-        <v>29.483214</v>
+        <v>2.967063</v>
       </c>
       <c r="O8">
-        <v>0.3869625527756497</v>
+        <v>0.05972921679266473</v>
       </c>
       <c r="P8">
-        <v>0.3869625527756497</v>
+        <v>0.05972921679266473</v>
       </c>
       <c r="Q8">
-        <v>485.3369772463267</v>
+        <v>48.84221196913666</v>
       </c>
       <c r="R8">
-        <v>4368.032795216941</v>
+        <v>439.57990772223</v>
       </c>
       <c r="S8">
-        <v>0.07457249344606501</v>
+        <v>0.02533503531165205</v>
       </c>
       <c r="T8">
-        <v>0.07457249344606502</v>
+        <v>0.02533503531165205</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J9">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>28.088209</v>
       </c>
       <c r="O9">
-        <v>0.368653331266258</v>
+        <v>0.5654368392847325</v>
       </c>
       <c r="P9">
-        <v>0.368653331266258</v>
+        <v>0.5654368392847325</v>
       </c>
       <c r="Q9">
         <v>462.3731473889877</v>
@@ -1004,10 +1004,10 @@
         <v>4161.35832650089</v>
       </c>
       <c r="S9">
-        <v>0.07104407889737543</v>
+        <v>0.2398384418720003</v>
       </c>
       <c r="T9">
-        <v>0.07104407889737545</v>
+        <v>0.2398384418720003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J10">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>18.619965</v>
       </c>
       <c r="O10">
-        <v>0.2443841159580923</v>
+        <v>0.3748339439226028</v>
       </c>
       <c r="P10">
-        <v>0.2443841159580923</v>
+        <v>0.3748339439226028</v>
       </c>
       <c r="Q10">
         <v>306.51195387085</v>
@@ -1066,10 +1066,10 @@
         <v>2758.60758483765</v>
       </c>
       <c r="S10">
-        <v>0.04709585657548936</v>
+        <v>0.1589913900637517</v>
       </c>
       <c r="T10">
-        <v>0.04709585657548936</v>
+        <v>0.1589913900637517</v>
       </c>
     </row>
   </sheetData>
